--- a/Data/RoomRev_GANTT-MH.NA.FO.xlsx
+++ b/Data/RoomRev_GANTT-MH.NA.FO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mb_hu\Desktop\schulsachen\Module\projekt-woche\room_rev\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projektaufgabe-Meeting-Room-Reservation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{880049AD-5937-45CD-B233-086B272ABBE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1B95E-EF05-4B10-A9E3-0169F9136217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{76A42F15-4FAE-4743-B019-576F4F7E49F4}"/>
   </bookViews>
@@ -335,9 +335,18 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -347,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -410,15 +419,17 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -760,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED6580-AC6E-4D38-A2EB-7F1CD96B72C5}">
   <dimension ref="A1:CN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="AD43" sqref="AD43"/>
+    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="151" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -859,102 +870,102 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="34">
+      <c r="E1" s="36">
         <v>45748</v>
       </c>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34">
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36">
         <v>45749</v>
       </c>
-      <c r="J1" s="34"/>
-      <c r="K1" s="34"/>
-      <c r="L1" s="34"/>
-      <c r="M1" s="34">
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36">
         <v>45750</v>
       </c>
-      <c r="N1" s="34"/>
-      <c r="O1" s="34"/>
-      <c r="P1" s="34"/>
-      <c r="Q1" s="34">
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36">
         <v>45751</v>
       </c>
-      <c r="R1" s="34"/>
-      <c r="S1" s="34"/>
-      <c r="T1" s="34"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36"/>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="36"/>
-      <c r="AG1" s="35"/>
-      <c r="AH1" s="36"/>
-      <c r="AI1" s="36"/>
-      <c r="AJ1" s="36"/>
-      <c r="AK1" s="35"/>
-      <c r="AL1" s="36"/>
-      <c r="AM1" s="36"/>
-      <c r="AN1" s="36"/>
-      <c r="AO1" s="35"/>
-      <c r="AP1" s="36"/>
-      <c r="AQ1" s="36"/>
-      <c r="AR1" s="36"/>
-      <c r="AS1" s="35"/>
-      <c r="AT1" s="36"/>
-      <c r="AU1" s="36"/>
-      <c r="AV1" s="36"/>
-      <c r="AW1" s="35"/>
-      <c r="AX1" s="36"/>
-      <c r="AY1" s="36"/>
-      <c r="AZ1" s="36"/>
-      <c r="BA1" s="35"/>
-      <c r="BB1" s="36"/>
-      <c r="BC1" s="36"/>
-      <c r="BD1" s="36"/>
-      <c r="BE1" s="35"/>
-      <c r="BF1" s="36"/>
-      <c r="BG1" s="36"/>
-      <c r="BH1" s="36"/>
-      <c r="BI1" s="35"/>
-      <c r="BJ1" s="36"/>
-      <c r="BK1" s="36"/>
-      <c r="BL1" s="36"/>
-      <c r="BM1" s="35"/>
-      <c r="BN1" s="36"/>
-      <c r="BO1" s="36"/>
-      <c r="BP1" s="36"/>
-      <c r="BQ1" s="35"/>
-      <c r="BR1" s="36"/>
-      <c r="BS1" s="36"/>
-      <c r="BT1" s="36"/>
-      <c r="BU1" s="35"/>
-      <c r="BV1" s="36"/>
-      <c r="BW1" s="36"/>
-      <c r="BX1" s="36"/>
-      <c r="BY1" s="35"/>
-      <c r="BZ1" s="36"/>
-      <c r="CA1" s="36"/>
-      <c r="CB1" s="36"/>
-      <c r="CC1" s="35"/>
-      <c r="CD1" s="36"/>
-      <c r="CE1" s="36"/>
-      <c r="CF1" s="36"/>
-      <c r="CG1" s="35"/>
-      <c r="CH1" s="36"/>
-      <c r="CI1" s="36"/>
-      <c r="CJ1" s="36"/>
-      <c r="CK1" s="35"/>
-      <c r="CL1" s="36"/>
-      <c r="CM1" s="36"/>
-      <c r="CN1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35"/>
+      <c r="X1" s="35"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="35"/>
+      <c r="AG1" s="34"/>
+      <c r="AH1" s="35"/>
+      <c r="AI1" s="35"/>
+      <c r="AJ1" s="35"/>
+      <c r="AK1" s="34"/>
+      <c r="AL1" s="35"/>
+      <c r="AM1" s="35"/>
+      <c r="AN1" s="35"/>
+      <c r="AO1" s="34"/>
+      <c r="AP1" s="35"/>
+      <c r="AQ1" s="35"/>
+      <c r="AR1" s="35"/>
+      <c r="AS1" s="34"/>
+      <c r="AT1" s="35"/>
+      <c r="AU1" s="35"/>
+      <c r="AV1" s="35"/>
+      <c r="AW1" s="34"/>
+      <c r="AX1" s="35"/>
+      <c r="AY1" s="35"/>
+      <c r="AZ1" s="35"/>
+      <c r="BA1" s="34"/>
+      <c r="BB1" s="35"/>
+      <c r="BC1" s="35"/>
+      <c r="BD1" s="35"/>
+      <c r="BE1" s="34"/>
+      <c r="BF1" s="35"/>
+      <c r="BG1" s="35"/>
+      <c r="BH1" s="35"/>
+      <c r="BI1" s="34"/>
+      <c r="BJ1" s="35"/>
+      <c r="BK1" s="35"/>
+      <c r="BL1" s="35"/>
+      <c r="BM1" s="34"/>
+      <c r="BN1" s="35"/>
+      <c r="BO1" s="35"/>
+      <c r="BP1" s="35"/>
+      <c r="BQ1" s="34"/>
+      <c r="BR1" s="35"/>
+      <c r="BS1" s="35"/>
+      <c r="BT1" s="35"/>
+      <c r="BU1" s="34"/>
+      <c r="BV1" s="35"/>
+      <c r="BW1" s="35"/>
+      <c r="BX1" s="35"/>
+      <c r="BY1" s="34"/>
+      <c r="BZ1" s="35"/>
+      <c r="CA1" s="35"/>
+      <c r="CB1" s="35"/>
+      <c r="CC1" s="34"/>
+      <c r="CD1" s="35"/>
+      <c r="CE1" s="35"/>
+      <c r="CF1" s="35"/>
+      <c r="CG1" s="34"/>
+      <c r="CH1" s="35"/>
+      <c r="CI1" s="35"/>
+      <c r="CJ1" s="35"/>
+      <c r="CK1" s="34"/>
+      <c r="CL1" s="35"/>
+      <c r="CM1" s="35"/>
+      <c r="CN1" s="35"/>
     </row>
     <row r="2" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1157,7 +1168,7 @@
       </c>
       <c r="D11" s="10">
         <f>SUM(D12:D23)</f>
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1435,8 +1446,11 @@
       <c r="C22" s="12">
         <v>2</v>
       </c>
-      <c r="D22" s="12"/>
-      <c r="I22" s="8"/>
+      <c r="D22" s="12">
+        <v>2</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="I22" s="37"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
@@ -1445,6 +1459,8 @@
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="9"/>
     </row>
     <row r="24" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A24" s="14" t="s">
@@ -1621,11 +1637,11 @@
       <c r="B31" s="19"/>
       <c r="C31" s="18">
         <f>SUM(C32:C41)</f>
-        <v>7.5</v>
+        <v>9.5</v>
       </c>
       <c r="D31" s="18">
         <f>SUM(D32:D40)</f>
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
@@ -1678,15 +1694,22 @@
       <c r="C34" s="20">
         <v>2</v>
       </c>
-      <c r="D34" s="20"/>
+      <c r="D34" s="20">
+        <v>5</v>
+      </c>
       <c r="K34" s="8"/>
+      <c r="L34" s="8"/>
+      <c r="T34" s="8"/>
     </row>
     <row r="35" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A35" s="20"/>
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="Q35" s="8"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="S35" s="38"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
@@ -1696,18 +1719,21 @@
         <v>43</v>
       </c>
       <c r="C36" s="20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D36" s="20">
-        <v>1</v>
-      </c>
-      <c r="Q36" s="9"/>
+        <v>2</v>
+      </c>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A37" s="20"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
+      <c r="P37" s="38"/>
+      <c r="R37" s="38"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
@@ -1739,16 +1765,21 @@
         <v>37</v>
       </c>
       <c r="C40" s="20">
-        <v>1</v>
-      </c>
-      <c r="D40" s="20"/>
+        <v>2</v>
+      </c>
+      <c r="D40" s="20">
+        <v>2</v>
+      </c>
       <c r="M40" s="8"/>
+      <c r="Q40" s="8"/>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A41" s="20"/>
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
+      <c r="S41" s="38"/>
+      <c r="T41" s="38"/>
     </row>
     <row r="42" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="22" t="s">
@@ -1873,7 +1904,7 @@
       </c>
       <c r="D51" s="27">
         <f>SUM(D52:D62)</f>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
@@ -1942,7 +1973,11 @@
       <c r="C56" s="30">
         <v>3</v>
       </c>
-      <c r="D56" s="30"/>
+      <c r="D56" s="30">
+        <v>4</v>
+      </c>
+      <c r="I56" s="8"/>
+      <c r="M56" s="8"/>
       <c r="T56" s="8"/>
     </row>
     <row r="57" spans="1:20" x14ac:dyDescent="0.35">
@@ -1950,6 +1985,10 @@
       <c r="B57" s="31"/>
       <c r="C57" s="30"/>
       <c r="D57" s="30"/>
+      <c r="N57" s="9"/>
+      <c r="P57" s="9"/>
+      <c r="S57" s="9"/>
+      <c r="T57" s="9"/>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A58" s="30" t="s">
@@ -2018,25 +2057,15 @@
       <c r="B64" s="32"/>
       <c r="C64" s="32">
         <f>SUM(C12:C23, C25:C29, C32:C40, C43:C50, C52:C62, C3:C10)</f>
-        <v>26.5</v>
+        <v>28.5</v>
       </c>
       <c r="D64" s="32">
         <f>SUM(D12:D22, D25:D29, D32:D40, D43:D49, D52:D62,D3:D7)</f>
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="BY1:CB1"/>
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="CG1:CJ1"/>
-    <mergeCell ref="CK1:CN1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BM1:BP1"/>
-    <mergeCell ref="BQ1:BT1"/>
-    <mergeCell ref="BU1:BX1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:L1"/>
@@ -2049,6 +2078,16 @@
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AS1:AV1"/>
+    <mergeCell ref="BY1:CB1"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="CG1:CJ1"/>
+    <mergeCell ref="CK1:CN1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BM1:BP1"/>
+    <mergeCell ref="BQ1:BT1"/>
+    <mergeCell ref="BU1:BX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Data/RoomRev_GANTT-MH.NA.FO.xlsx
+++ b/Data/RoomRev_GANTT-MH.NA.FO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projektaufgabe-Meeting-Room-Reservation\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F1B95E-EF05-4B10-A9E3-0169F9136217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{980A42DB-D788-4F76-B1BB-B07AFC4F72BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{76A42F15-4FAE-4743-B019-576F4F7E49F4}"/>
   </bookViews>
@@ -356,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -419,17 +419,16 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="180"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="180"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="180"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -771,8 +770,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05ED6580-AC6E-4D38-A2EB-7F1CD96B72C5}">
   <dimension ref="A1:CN64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C29" zoomScale="151" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="151" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -870,102 +869,102 @@
       <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="36">
+      <c r="E1" s="35">
         <v>45748</v>
       </c>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36">
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35">
         <v>45749</v>
       </c>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36">
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35">
         <v>45750</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36">
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35">
         <v>45751</v>
       </c>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35"/>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="34"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="34"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="35"/>
-      <c r="AG1" s="34"/>
-      <c r="AH1" s="35"/>
-      <c r="AI1" s="35"/>
-      <c r="AJ1" s="35"/>
-      <c r="AK1" s="34"/>
-      <c r="AL1" s="35"/>
-      <c r="AM1" s="35"/>
-      <c r="AN1" s="35"/>
-      <c r="AO1" s="34"/>
-      <c r="AP1" s="35"/>
-      <c r="AQ1" s="35"/>
-      <c r="AR1" s="35"/>
-      <c r="AS1" s="34"/>
-      <c r="AT1" s="35"/>
-      <c r="AU1" s="35"/>
-      <c r="AV1" s="35"/>
-      <c r="AW1" s="34"/>
-      <c r="AX1" s="35"/>
-      <c r="AY1" s="35"/>
-      <c r="AZ1" s="35"/>
-      <c r="BA1" s="34"/>
-      <c r="BB1" s="35"/>
-      <c r="BC1" s="35"/>
-      <c r="BD1" s="35"/>
-      <c r="BE1" s="34"/>
-      <c r="BF1" s="35"/>
-      <c r="BG1" s="35"/>
-      <c r="BH1" s="35"/>
-      <c r="BI1" s="34"/>
-      <c r="BJ1" s="35"/>
-      <c r="BK1" s="35"/>
-      <c r="BL1" s="35"/>
-      <c r="BM1" s="34"/>
-      <c r="BN1" s="35"/>
-      <c r="BO1" s="35"/>
-      <c r="BP1" s="35"/>
-      <c r="BQ1" s="34"/>
-      <c r="BR1" s="35"/>
-      <c r="BS1" s="35"/>
-      <c r="BT1" s="35"/>
-      <c r="BU1" s="34"/>
-      <c r="BV1" s="35"/>
-      <c r="BW1" s="35"/>
-      <c r="BX1" s="35"/>
-      <c r="BY1" s="34"/>
-      <c r="BZ1" s="35"/>
-      <c r="CA1" s="35"/>
-      <c r="CB1" s="35"/>
-      <c r="CC1" s="34"/>
-      <c r="CD1" s="35"/>
-      <c r="CE1" s="35"/>
-      <c r="CF1" s="35"/>
-      <c r="CG1" s="34"/>
-      <c r="CH1" s="35"/>
-      <c r="CI1" s="35"/>
-      <c r="CJ1" s="35"/>
-      <c r="CK1" s="34"/>
-      <c r="CL1" s="35"/>
-      <c r="CM1" s="35"/>
-      <c r="CN1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37"/>
+      <c r="X1" s="37"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="37"/>
+      <c r="AG1" s="36"/>
+      <c r="AH1" s="37"/>
+      <c r="AI1" s="37"/>
+      <c r="AJ1" s="37"/>
+      <c r="AK1" s="36"/>
+      <c r="AL1" s="37"/>
+      <c r="AM1" s="37"/>
+      <c r="AN1" s="37"/>
+      <c r="AO1" s="36"/>
+      <c r="AP1" s="37"/>
+      <c r="AQ1" s="37"/>
+      <c r="AR1" s="37"/>
+      <c r="AS1" s="36"/>
+      <c r="AT1" s="37"/>
+      <c r="AU1" s="37"/>
+      <c r="AV1" s="37"/>
+      <c r="AW1" s="36"/>
+      <c r="AX1" s="37"/>
+      <c r="AY1" s="37"/>
+      <c r="AZ1" s="37"/>
+      <c r="BA1" s="36"/>
+      <c r="BB1" s="37"/>
+      <c r="BC1" s="37"/>
+      <c r="BD1" s="37"/>
+      <c r="BE1" s="36"/>
+      <c r="BF1" s="37"/>
+      <c r="BG1" s="37"/>
+      <c r="BH1" s="37"/>
+      <c r="BI1" s="36"/>
+      <c r="BJ1" s="37"/>
+      <c r="BK1" s="37"/>
+      <c r="BL1" s="37"/>
+      <c r="BM1" s="36"/>
+      <c r="BN1" s="37"/>
+      <c r="BO1" s="37"/>
+      <c r="BP1" s="37"/>
+      <c r="BQ1" s="36"/>
+      <c r="BR1" s="37"/>
+      <c r="BS1" s="37"/>
+      <c r="BT1" s="37"/>
+      <c r="BU1" s="36"/>
+      <c r="BV1" s="37"/>
+      <c r="BW1" s="37"/>
+      <c r="BX1" s="37"/>
+      <c r="BY1" s="36"/>
+      <c r="BZ1" s="37"/>
+      <c r="CA1" s="37"/>
+      <c r="CB1" s="37"/>
+      <c r="CC1" s="36"/>
+      <c r="CD1" s="37"/>
+      <c r="CE1" s="37"/>
+      <c r="CF1" s="37"/>
+      <c r="CG1" s="36"/>
+      <c r="CH1" s="37"/>
+      <c r="CI1" s="37"/>
+      <c r="CJ1" s="37"/>
+      <c r="CK1" s="36"/>
+      <c r="CL1" s="37"/>
+      <c r="CM1" s="37"/>
+      <c r="CN1" s="37"/>
     </row>
     <row r="2" spans="1:92" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A2" s="3" t="s">
@@ -1450,7 +1449,6 @@
         <v>2</v>
       </c>
       <c r="F22" s="8"/>
-      <c r="I22" s="37"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
     </row>
@@ -1706,10 +1704,10 @@
       <c r="B35" s="20"/>
       <c r="C35" s="20"/>
       <c r="D35" s="20"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="S35" s="38"/>
+      <c r="O35" s="34"/>
+      <c r="P35" s="34"/>
+      <c r="Q35" s="34"/>
+      <c r="S35" s="34"/>
     </row>
     <row r="36" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A36" s="20" t="s">
@@ -1732,8 +1730,8 @@
       <c r="B37" s="20"/>
       <c r="C37" s="20"/>
       <c r="D37" s="20"/>
-      <c r="P37" s="38"/>
-      <c r="R37" s="38"/>
+      <c r="P37" s="34"/>
+      <c r="R37" s="34"/>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A38" s="20" t="s">
@@ -1778,8 +1776,8 @@
       <c r="B41" s="21"/>
       <c r="C41" s="20"/>
       <c r="D41" s="20"/>
-      <c r="S41" s="38"/>
-      <c r="T41" s="38"/>
+      <c r="S41" s="34"/>
+      <c r="T41" s="34"/>
     </row>
     <row r="42" spans="1:20" ht="18.5" x14ac:dyDescent="0.45">
       <c r="A42" s="22" t="s">
@@ -1904,7 +1902,7 @@
       </c>
       <c r="D51" s="27">
         <f>SUM(D52:D62)</f>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E51" s="29"/>
       <c r="F51" s="29"/>
@@ -2000,7 +1998,9 @@
       <c r="C58" s="30">
         <v>0.5</v>
       </c>
-      <c r="D58" s="30"/>
+      <c r="D58" s="30">
+        <v>0.5</v>
+      </c>
       <c r="T58" s="8"/>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.35">
@@ -2020,7 +2020,9 @@
       <c r="C60" s="30">
         <v>0.5</v>
       </c>
-      <c r="D60" s="30"/>
+      <c r="D60" s="30">
+        <v>0.5</v>
+      </c>
       <c r="T60" s="8"/>
     </row>
     <row r="61" spans="1:20" x14ac:dyDescent="0.35">
@@ -2040,7 +2042,9 @@
       <c r="C62" s="30">
         <v>1</v>
       </c>
-      <c r="D62" s="30"/>
+      <c r="D62" s="30">
+        <v>2</v>
+      </c>
       <c r="T62" s="8"/>
     </row>
     <row r="63" spans="1:20" x14ac:dyDescent="0.35">
@@ -2048,6 +2052,7 @@
       <c r="B63" s="31"/>
       <c r="C63" s="30"/>
       <c r="D63" s="30"/>
+      <c r="S63" s="9"/>
       <c r="T63" s="9"/>
     </row>
     <row r="64" spans="1:20" ht="23.5" x14ac:dyDescent="0.55000000000000004">
@@ -2061,11 +2066,21 @@
       </c>
       <c r="D64" s="32">
         <f>SUM(D12:D22, D25:D29, D32:D40, D43:D49, D52:D62,D3:D7)</f>
-        <v>25</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="BY1:CB1"/>
+    <mergeCell ref="CC1:CF1"/>
+    <mergeCell ref="CG1:CJ1"/>
+    <mergeCell ref="CK1:CN1"/>
+    <mergeCell ref="BA1:BD1"/>
+    <mergeCell ref="BE1:BH1"/>
+    <mergeCell ref="BI1:BL1"/>
+    <mergeCell ref="BM1:BP1"/>
+    <mergeCell ref="BQ1:BT1"/>
+    <mergeCell ref="BU1:BX1"/>
     <mergeCell ref="Q1:T1"/>
     <mergeCell ref="M1:P1"/>
     <mergeCell ref="I1:L1"/>
@@ -2078,16 +2093,6 @@
     <mergeCell ref="AK1:AN1"/>
     <mergeCell ref="AO1:AR1"/>
     <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="BY1:CB1"/>
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="CG1:CJ1"/>
-    <mergeCell ref="CK1:CN1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BM1:BP1"/>
-    <mergeCell ref="BQ1:BT1"/>
-    <mergeCell ref="BU1:BX1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
